--- a/development/database/excel/property.xlsx
+++ b/development/database/excel/property.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5805" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="581"/>
+    <workbookView xWindow="5805" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="581"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="5" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
   </externalReferences>
-  <calcPr calcId="144525" calcMode="manual"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -6091,8 +6091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K303"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:H303"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="B265" sqref="B265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8245,7 +8245,7 @@
         <v>1059</v>
       </c>
       <c r="B62">
-        <v>2000000000</v>
+        <v>100000000</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -11745,7 +11745,7 @@
         <v>2059</v>
       </c>
       <c r="B162">
-        <v>2000000000</v>
+        <v>100000000</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -15245,7 +15245,7 @@
         <v>3059</v>
       </c>
       <c r="B262">
-        <v>2000000000</v>
+        <v>100000000</v>
       </c>
       <c r="C262">
         <v>0</v>
